--- a/server/express/benchmarks.xlsx
+++ b/server/express/benchmarks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Code\hype\BENCHMARKS\server\express\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{206B81CF-A485-4702-8C6E-20427C25192C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1267E0A6-C04B-4B03-BB60-377CD903B1DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Work with Database" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="59">
   <si>
     <t>Endpoint</t>
   </si>
@@ -149,9 +149,6 @@
     <t>autocannon -c 100 -d 30 https://localhost:3001/posts/:id --insecure</t>
   </si>
   <si>
-    <t>autocannon -c 100 -d 30 -m POST -H "Content-Type: application/json" -b '{"title":"New Post","text":"New Text"}' https://localhost:3001/posts --insecure</t>
-  </si>
-  <si>
     <t>curl -k -X POST https://localhost:3001/posts -H "Content-Type: application/json" -d '{"title":"a","text":"b"}'</t>
   </si>
   <si>
@@ -210,6 +207,12 @@
   </si>
   <si>
     <t>Max</t>
+  </si>
+  <si>
+    <t>autocannon -c 1000 -d 30 https://localhost:3001/posts --insecure</t>
+  </si>
+  <si>
+    <t>autocannon -c 1000 -d 30 https://localhost:3001/posts/:id --insecure</t>
   </si>
 </sst>
 </file>
@@ -565,7 +568,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
@@ -612,10 +615,10 @@
         <v>4</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>3</v>
@@ -1336,10 +1339,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{019A5573-0988-4944-BD07-0E6BAB3BC568}">
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1428,20 +1431,29 @@
       <c r="A3" t="s">
         <v>20</v>
       </c>
+      <c r="B3">
+        <v>50</v>
+      </c>
+      <c r="C3">
+        <v>100</v>
+      </c>
+      <c r="D3">
+        <v>30</v>
+      </c>
       <c r="E3">
-        <v>11190.27</v>
+        <v>32706.87</v>
       </c>
       <c r="F3">
-        <v>11.5</v>
+        <v>33.5</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3">
-        <v>107</v>
+        <v>7</v>
       </c>
       <c r="I3">
-        <v>8.4700000000000006</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="K3" t="s">
         <v>36</v>
@@ -1449,54 +1461,168 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="B4">
+        <v>50</v>
+      </c>
+      <c r="C4">
+        <v>1000</v>
+      </c>
+      <c r="D4">
+        <v>30</v>
+      </c>
+      <c r="E4">
+        <v>21074.9</v>
+      </c>
+      <c r="F4">
+        <v>21.7</v>
+      </c>
+      <c r="G4">
+        <v>14</v>
+      </c>
+      <c r="H4">
+        <v>92</v>
+      </c>
+      <c r="I4">
+        <v>47.25</v>
       </c>
       <c r="K4" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="B5">
+        <v>50</v>
+      </c>
+      <c r="C5">
+        <v>1000</v>
+      </c>
+      <c r="D5">
+        <v>30</v>
+      </c>
+      <c r="E5">
+        <v>7526.74</v>
+      </c>
+      <c r="F5">
+        <v>7.72</v>
+      </c>
+      <c r="G5">
+        <v>8</v>
+      </c>
+      <c r="H5">
+        <v>2282</v>
+      </c>
+      <c r="I5">
+        <v>342.37</v>
+      </c>
+      <c r="K5" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>18</v>
+      </c>
+      <c r="B6">
+        <v>500</v>
+      </c>
+      <c r="C6">
+        <v>100</v>
+      </c>
+      <c r="D6">
+        <v>30</v>
+      </c>
+      <c r="K6" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B7">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="C7">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="D7">
         <v>30</v>
       </c>
+      <c r="K7" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="B8">
+        <v>500</v>
+      </c>
+      <c r="C8">
+        <v>1000</v>
+      </c>
+      <c r="D8">
+        <v>30</v>
+      </c>
+      <c r="K8" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="B9">
+        <v>500</v>
+      </c>
+      <c r="C9">
+        <v>1000</v>
+      </c>
+      <c r="D9">
+        <v>30</v>
+      </c>
+      <c r="K9" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>5000</v>
+      </c>
+      <c r="C10">
+        <v>100</v>
+      </c>
+      <c r="D10">
+        <v>30</v>
+      </c>
+      <c r="K10" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="B11">
+        <v>5000</v>
+      </c>
+      <c r="C11">
+        <v>100</v>
+      </c>
+      <c r="D11">
+        <v>30</v>
+      </c>
+      <c r="K11" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -1504,135 +1630,33 @@
         <v>18</v>
       </c>
       <c r="B12">
-        <v>500</v>
+        <v>5000</v>
       </c>
       <c r="C12">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D12">
         <v>30</v>
+      </c>
+      <c r="K12" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17">
-        <v>500</v>
-      </c>
-      <c r="C17">
+      <c r="B13">
+        <v>5000</v>
+      </c>
+      <c r="C13">
         <v>1000</v>
       </c>
-      <c r="D17">
+      <c r="D13">
         <v>30</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22">
-        <v>5000</v>
-      </c>
-      <c r="C22">
-        <v>100</v>
-      </c>
-      <c r="D22">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>18</v>
-      </c>
-      <c r="B27">
-        <v>5000</v>
-      </c>
-      <c r="C27">
-        <v>1000</v>
-      </c>
-      <c r="D27">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>22</v>
+      <c r="K13" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1676,10 +1700,10 @@
         <v>3</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -1687,7 +1711,7 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1696,13 +1720,13 @@
         <v>322</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -1710,7 +1734,7 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1719,13 +1743,13 @@
         <v>254</v>
       </c>
       <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" t="s">
         <v>44</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -1733,7 +1757,7 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1742,21 +1766,21 @@
         <v>203</v>
       </c>
       <c r="E4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F4" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" t="s">
         <v>47</v>
-      </c>
-      <c r="G4" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1768,10 +1792,10 @@
         <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -1779,7 +1803,7 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -1791,10 +1815,10 @@
         <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/server/express/benchmarks.xlsx
+++ b/server/express/benchmarks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Code\hype\BENCHMARKS\server\express\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1267E0A6-C04B-4B03-BB60-377CD903B1DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C225D4E7-D23F-4224-A4C0-7BDCD429DA60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Work with Database" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="59">
   <si>
     <t>Endpoint</t>
   </si>
@@ -53,9 +53,6 @@
     <t>Standard deviation, msec</t>
   </si>
   <si>
-    <t>Number of simultaneous connections, n</t>
-  </si>
-  <si>
     <t>Latency 2.5%, msec</t>
   </si>
   <si>
@@ -213,6 +210,9 @@
   </si>
   <si>
     <t>autocannon -c 1000 -d 30 https://localhost:3001/posts/:id --insecure</t>
+  </si>
+  <si>
+    <t>Simultaneous connections, n</t>
   </si>
 </sst>
 </file>
@@ -569,7 +569,7 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -591,22 +591,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>1</v>
@@ -615,10 +615,10 @@
         <v>4</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>3</v>
@@ -626,7 +626,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="3">
         <v>50</v>
@@ -666,7 +666,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3">
@@ -701,12 +701,12 @@
         <v>665.01</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3">
@@ -741,12 +741,12 @@
         <v>429.04</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3">
@@ -784,7 +784,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3">
@@ -822,7 +822,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3">
@@ -860,7 +860,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" s="3">
         <v>500</v>
@@ -900,7 +900,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3">
@@ -935,12 +935,12 @@
         <v>724.1</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3">
@@ -975,12 +975,12 @@
         <v>345.86</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3">
@@ -1018,7 +1018,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3">
@@ -1056,7 +1056,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3">
@@ -1094,7 +1094,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14" s="3">
         <v>5000</v>
@@ -1134,7 +1134,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3">
@@ -1169,12 +1169,12 @@
         <v>613.03</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3">
@@ -1209,12 +1209,12 @@
         <v>1081.1300000000001</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3">
@@ -1252,7 +1252,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3">
@@ -1290,7 +1290,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3">
@@ -1328,7 +1328,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="L20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1339,9 +1339,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{019A5573-0988-4944-BD07-0E6BAB3BC568}">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -1349,7 +1349,7 @@
   <cols>
     <col min="1" max="1" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.21875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
@@ -1365,31 +1365,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>3</v>
@@ -1397,7 +1397,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2">
         <v>50</v>
@@ -1424,12 +1424,12 @@
         <v>4.05</v>
       </c>
       <c r="K2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3">
         <v>50</v>
@@ -1456,12 +1456,12 @@
         <v>2.5499999999999998</v>
       </c>
       <c r="K3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4">
         <v>50</v>
@@ -1488,12 +1488,12 @@
         <v>47.25</v>
       </c>
       <c r="K4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5">
         <v>50</v>
@@ -1520,143 +1520,7 @@
         <v>342.37</v>
       </c>
       <c r="K5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6">
-        <v>500</v>
-      </c>
-      <c r="C6">
-        <v>100</v>
-      </c>
-      <c r="D6">
-        <v>30</v>
-      </c>
-      <c r="K6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7">
-        <v>500</v>
-      </c>
-      <c r="C7">
-        <v>100</v>
-      </c>
-      <c r="D7">
-        <v>30</v>
-      </c>
-      <c r="K7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8">
-        <v>500</v>
-      </c>
-      <c r="C8">
-        <v>1000</v>
-      </c>
-      <c r="D8">
-        <v>30</v>
-      </c>
-      <c r="K8" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9">
-        <v>500</v>
-      </c>
-      <c r="C9">
-        <v>1000</v>
-      </c>
-      <c r="D9">
-        <v>30</v>
-      </c>
-      <c r="K9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10">
-        <v>5000</v>
-      </c>
-      <c r="C10">
-        <v>100</v>
-      </c>
-      <c r="D10">
-        <v>30</v>
-      </c>
-      <c r="K10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11">
-        <v>5000</v>
-      </c>
-      <c r="C11">
-        <v>100</v>
-      </c>
-      <c r="D11">
-        <v>30</v>
-      </c>
-      <c r="K11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12">
-        <v>5000</v>
-      </c>
-      <c r="C12">
-        <v>1000</v>
-      </c>
-      <c r="D12">
-        <v>30</v>
-      </c>
-      <c r="K12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13">
-        <v>5000</v>
-      </c>
-      <c r="C13">
-        <v>1000</v>
-      </c>
-      <c r="D13">
-        <v>30</v>
-      </c>
-      <c r="K13" t="s">
-        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1669,7 +1533,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5229BCE1-F3D2-4DA6-99A6-0EFD9C88B9FB}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
@@ -1685,33 +1549,33 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>11</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1720,21 +1584,21 @@
         <v>322</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1743,21 +1607,21 @@
         <v>254</v>
       </c>
       <c r="E3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" t="s">
         <v>43</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1766,21 +1630,21 @@
         <v>203</v>
       </c>
       <c r="E4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F4" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" t="s">
         <v>46</v>
-      </c>
-      <c r="G4" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1789,21 +1653,21 @@
         <v>98</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -1812,13 +1676,13 @@
         <v>411</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
